--- a/va_facility_data_2025-02-20/Richmond VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Richmond%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Richmond VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Richmond%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ra550f51817154701904c2c9396f17a5f"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R6fd03fb016744be1a8c3f2ee255485db"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra4c5a54c612b4a398ebd3b3603f1cbe4"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rf9f0f0b3dda54af792e8b24ffdd7625a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd04a7c77852e4216a52166831f469958"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R204dad8d43154e8996be22cd95f56c74"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Racf5bfdecae141bfbde38cf721609e97"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re4f213a4b9004e0b95558a435b9a605c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R828472c271024bed852432dd8150493e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc4eb4916d01c4479ba166e168431c855"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf6ed30a70e8e4522b3b35e4df25ed2f6"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3a7c6ed115f345b89c62cabda4fc0116"/>
   </x:sheets>
 </x:workbook>
 </file>
